--- a/public/downFile/公安情报信息模块-人员电子档案.xlsx
+++ b/public/downFile/公安情报信息模块-人员电子档案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="人员电子档案 " sheetId="1" r:id="rId1"/>
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>头像照片</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>公民身份证号</t>
   </si>
   <si>
     <t>姓名</t>
@@ -25,70 +28,58 @@
     <t>性别</t>
   </si>
   <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
     <t>民族</t>
   </si>
   <si>
+    <t>户籍地</t>
+  </si>
+  <si>
+    <t>户籍地区划</t>
+  </si>
+  <si>
+    <t>户籍地派出所</t>
+  </si>
+  <si>
     <t>出生日期</t>
   </si>
   <si>
+    <t>曾用名</t>
+  </si>
+  <si>
+    <t>出生地</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>出生地国家</t>
+  </si>
+  <si>
+    <t>出生地区划</t>
+  </si>
+  <si>
+    <t>籍贯国家</t>
+  </si>
+  <si>
+    <t>服务处所</t>
+  </si>
+  <si>
+    <t>兵役状况</t>
+  </si>
+  <si>
+    <t>文化程度</t>
+  </si>
+  <si>
     <t>婚姻状况</t>
   </si>
   <si>
-    <t>生肖</t>
-  </si>
-  <si>
-    <t>星座</t>
-  </si>
-  <si>
-    <t>别名绰号</t>
-  </si>
-  <si>
-    <t>曾用名</t>
-  </si>
-  <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>血型</t>
-  </si>
-  <si>
-    <t>最高学历</t>
-  </si>
-  <si>
-    <t>政治面貌</t>
-  </si>
-  <si>
-    <t>职业</t>
-  </si>
-  <si>
-    <t>从业单位</t>
-  </si>
-  <si>
-    <t>兵役状况</t>
-  </si>
-  <si>
-    <t>体貌特征描述</t>
-  </si>
-  <si>
-    <t>出生地区划</t>
-  </si>
-  <si>
-    <t>籍贯</t>
-  </si>
-  <si>
-    <t>户籍地区划</t>
-  </si>
-  <si>
-    <t>户籍地址</t>
-  </si>
-  <si>
-    <t>其他地址</t>
-  </si>
-  <si>
-    <t>行为标签</t>
+    <t>死亡日期</t>
   </si>
 </sst>
 </file>
@@ -101,17 +92,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <name val="arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -584,51 +581,48 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,100 +632,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1051,108 +1053,97 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.552380952381" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857" customWidth="1"/>
-    <col min="2" max="3" width="5.57142857142857" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="5.57142857142857" customWidth="1"/>
-    <col min="6" max="7" width="9.57142857142857" customWidth="1"/>
-    <col min="8" max="9" width="5.57142857142857" customWidth="1"/>
-    <col min="10" max="10" width="9.57142857142857" customWidth="1"/>
-    <col min="11" max="11" width="7.57142857142857" customWidth="1"/>
-    <col min="12" max="13" width="5.57142857142857" customWidth="1"/>
-    <col min="14" max="15" width="9.57142857142857" customWidth="1"/>
-    <col min="16" max="16" width="5.57142857142857" customWidth="1"/>
-    <col min="17" max="18" width="9.57142857142857" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="11.7142857142857" customWidth="1"/>
-    <col min="21" max="21" width="5.57142857142857" customWidth="1"/>
-    <col min="22" max="22" width="11.7142857142857" customWidth="1"/>
-    <col min="23" max="25" width="9.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="45" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="5" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="10" max="11" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.4285714285714" style="1" customWidth="1"/>
+    <col min="17" max="21" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:22">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
